--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) L&T.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) L&T.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,47 +586,37 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>DESIGNATION</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>STAFF</t>
+          <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_STATUS</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>PROCESS</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
           <t>DEPARTMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
     </row>
@@ -649,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1934964.230000001</v>
+        <v>1934964.23</v>
       </c>
       <c r="E2" t="n">
         <v>63</v>
@@ -676,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>910417.4300000003</v>
+        <v>910417.4300000001</v>
       </c>
       <c r="N2" t="n">
         <v>1024546.8</v>
@@ -729,44 +715,40 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>35637</v>
       </c>
     </row>
     <row r="3">
@@ -784,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>581714.5499999998</v>
+        <v>581714.55</v>
       </c>
       <c r="E3" t="n">
         <v>39</v>
@@ -814,7 +796,7 @@
         <v>195864.97</v>
       </c>
       <c r="N3" t="n">
-        <v>385849.5799999998</v>
+        <v>385849.58</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -864,44 +846,40 @@
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>32793</v>
       </c>
     </row>
     <row r="4">
@@ -988,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.71000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="AB4" t="n">
         <v>2.58</v>
@@ -999,44 +977,40 @@
       <c r="AD4" t="n">
         <v>0</v>
       </c>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>P241</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>32396</v>
       </c>
     </row>
     <row r="5">
@@ -1047,23 +1021,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>517563.66</v>
+        <v>1041085.97</v>
       </c>
       <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
         <v>14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1081,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>648729.46</v>
       </c>
       <c r="N5" t="n">
-        <v>500073.91</v>
+        <v>378767.26</v>
       </c>
       <c r="O5" t="n">
-        <v>17489.75</v>
+        <v>13589.25</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1102,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>62.31</v>
       </c>
       <c r="U5" t="n">
-        <v>96.62</v>
+        <v>36.38</v>
       </c>
       <c r="V5" t="n">
-        <v>3.38</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1123,24 +1097,52 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>37.69</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.38</v>
+        <v>1.31</v>
       </c>
       <c r="AC5" t="n">
-        <v>1400</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+        <v>4000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1150,30 +1152,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SHARWAN</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1041085.97</v>
+        <v>1022017.83</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>648729.46</v>
+        <v>199933.01</v>
       </c>
       <c r="N6" t="n">
-        <v>378767.26</v>
+        <v>809574.42</v>
       </c>
       <c r="O6" t="n">
-        <v>13589.25</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1270.98</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1202,79 +1204,75 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>11239.42</v>
       </c>
       <c r="T6" t="n">
-        <v>62.31</v>
+        <v>19.56</v>
       </c>
       <c r="U6" t="n">
-        <v>36.38</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>37.69</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AC6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>26879</v>
       </c>
     </row>
     <row r="7">
@@ -1285,29 +1283,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SHARWAN</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1022017.83</v>
+        <v>1900964.06</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1319,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>199933.01</v>
+        <v>747673.49</v>
       </c>
       <c r="N7" t="n">
-        <v>809574.4199999997</v>
+        <v>1125022.38</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1270.98</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1337,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>11239.42</v>
+        <v>28268.19</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56</v>
+        <v>39.33</v>
       </c>
       <c r="U7" t="n">
-        <v>79.20999999999999</v>
+        <v>59.18</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1352,64 +1350,60 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.42999999999999</v>
+        <v>60.67</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AC7" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>32417</v>
       </c>
     </row>
     <row r="8">
@@ -1420,29 +1414,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SOURAV KUMAR</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1900964.06</v>
+        <v>837049.22</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1451,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>747673.4899999999</v>
+        <v>203980.77</v>
       </c>
       <c r="N8" t="n">
-        <v>1125022.38</v>
+        <v>617748.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>12693.94</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2626.31</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1472,79 +1466,75 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28268.19</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.33</v>
+        <v>24.37</v>
       </c>
       <c r="U8" t="n">
-        <v>59.18</v>
+        <v>73.8</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.67</v>
+        <v>75.63</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>5500</v>
+        <v>6200</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>P261</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>35109</v>
       </c>
     </row>
     <row r="9">
@@ -1555,29 +1545,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SUDHAKAR</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>837049.2199999997</v>
+        <v>272424.49</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1589,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>203980.77</v>
+        <v>177635.46</v>
       </c>
       <c r="N9" t="n">
-        <v>617748.2</v>
+        <v>94789.03</v>
       </c>
       <c r="O9" t="n">
-        <v>12693.94</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2626.31</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1610,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>24.37</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>73.8</v>
+        <v>34.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1625,196 +1615,57 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.63</v>
+        <v>34.79</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>6200</v>
+        <v>1500</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>P126</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
           <t>HL</t>
         </is>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>32587</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>272424.49</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>177635.46</v>
-      </c>
-      <c r="N10" t="n">
-        <v>94789.03000000001</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="U10" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="AM10" s="2" t="n">
-        <v>27824</v>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) L&T.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary) L&T.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,35 +586,40 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>PROCESS</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
@@ -715,37 +720,38 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -846,37 +852,38 @@
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -977,37 +984,38 @@
       <c r="AD4" t="n">
         <v>0</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
       <c r="AK4" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -1108,37 +1116,38 @@
       <c r="AD5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>P264</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1239,37 +1248,38 @@
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>P119</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1370,37 +1380,38 @@
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1501,37 +1512,38 @@
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1632,37 +1644,38 @@
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="AG9" t="inlineStr">
         <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
           <t>FOS</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>FIELD</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
